--- a/biology/Botanique/Dichanthelium/Dichanthelium.xlsx
+++ b/biology/Botanique/Dichanthelium/Dichanthelium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Panic
 Dichanthelium est un genre de plantes de la famille des Poaceae. Il comprend plus de 90 espèces toutes originaires des Amériques. Il est appelé en français Panic.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a pour aire de répartition les Amériques[3],[2]. Certaines espèces ont pu être introduites en Europe[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a pour aire de répartition les Amériques,. Certaines espèces ont pu être introduites en Europe.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (19 décembre 2020)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (19 décembre 2020) :
 Dichanthelium aciculare (Desv.) Gould &amp; C.A.Clark
 Dichanthelium aculeatum (Hitchc. &amp; Chase) LeBlond
 Dichanthelium acuminatum (Sw.) Gould &amp; C.A.Clark
